--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Desktop\CSIC IATA PhD preparation\TRABAJO EN PROGRESO\Systematic Review paedriatic Cancer_Jaime\to continue 11.11.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Desktop\CSIC IATA PhD preparation\TRABAJO EN PROGRESO\Systematic Review paedriatic Cancer_Jaime\submission in Lancet child and adolescent health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37ADA1C-5949-4895-863C-58F9575B9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F3AF7D-0653-4EE2-9C1A-A447CFA37EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study_characteristics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="1524">
   <si>
     <t>Study ID</t>
   </si>
@@ -4494,6 +4494,146 @@
   </si>
   <si>
     <t>Trend to lower Bacteroides in ALL, not FDR-significant</t>
+  </si>
+  <si>
+    <t>Muratore_2025</t>
+  </si>
+  <si>
+    <t>Distinct functional and compositional properties in the gut microbiome of children with acute lymphoblastic leukaemia identified by shotgun metagenomics</t>
+  </si>
+  <si>
+    <t>Observational, case–control, cross-sectional (baseline at diagnosis)</t>
+  </si>
+  <si>
+    <t>Pediatric ALL patients with fecal sample at diagnosis, pre-chemotherapy; compared to publicly available European pediatric healthy controls</t>
+  </si>
+  <si>
+    <t>Acute lymphoblastic leukaemia (ALL)</t>
+  </si>
+  <si>
+    <t>Hospital clinical diagnosis; immunophenotype by flow cytometry (B-ALL/T-ALL)</t>
+  </si>
+  <si>
+    <t>Newly diagnosed; treatment-naïve at sampling; B-ALL (n=19), T-ALL (n=11)</t>
+  </si>
+  <si>
+    <t>Exposure = gut microbiome composition/function at diagnosis (shotgun metagenomics); recorded antibiotics in prior 30 days</t>
+  </si>
+  <si>
+    <t>Healthy controls: 176 publicly available European pediatric shotgun metagenomes (incl. 52 Italian)</t>
+  </si>
+  <si>
+    <t>Shotgun metagenomics (Illumina NovaSeq; MetaPhlAn4 + HUMAnN3 pipeline); additional contextual comparison to published 16S datasets</t>
+  </si>
+  <si>
+    <t>Shotgun metagenomic sequencing (primary); 16S comparison (secondary)</t>
+  </si>
+  <si>
+    <t>Median 3.8 (range 1.5–17.3)</t>
+  </si>
+  <si>
+    <t>57% male (≈43% female)</t>
+  </si>
+  <si>
+    <t>Antibiotics in 30 days pre-diagnosis recorded (27%); other exposures not reported</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single timepoint stool at diagnosis, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before chemotherapy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; enrollment Jan 2017–Jun 2020; antibiotics assessed in prior 30 days</t>
+    </r>
+  </si>
+  <si>
+    <t>Diagnosis baseline (pre-treatment); 30-day pre-sampling antibiotic window</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>ALL vs HC</t>
+  </si>
+  <si>
+    <t>ALL status (at diagnosis; pre-chemo)</t>
+  </si>
+  <si>
+    <t>Alpha diversity (e.g., Shannon / Inverse Simpson)</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>t-test or Wilcoxon (per normality; not specified for this endpoint)</t>
+  </si>
+  <si>
+    <t>Yes (B-ALL vs T-ALL)</t>
+  </si>
+  <si>
+    <t>No difference ALL vs HC</t>
+  </si>
+  <si>
+    <t>Beta diversity (Weighted/Unweighted UniFrac)</t>
+  </si>
+  <si>
+    <t>PERMANOVA (adonis; 9999 permutations)</t>
+  </si>
+  <si>
+    <t>Yes (age-related clustering noted; B-ALL vs T-ALL tested)</t>
+  </si>
+  <si>
+    <t>Distinct community structure in ALL vs HC</t>
+  </si>
+  <si>
+    <t>Enterococcus faecium relative abundance</t>
+  </si>
+  <si>
+    <t>FDR&lt;0.05</t>
+  </si>
+  <si>
+    <t>Wilcoxon + BH FDR</t>
+  </si>
+  <si>
+    <t>Increased in ALL</t>
+  </si>
+  <si>
+    <t>Rothia dentocariosa relative abundance</t>
+  </si>
+  <si>
+    <t>Lautropia mirabilis relative abundance</t>
+  </si>
+  <si>
+    <t>HC vs ALL</t>
+  </si>
+  <si>
+    <t>Anaerostipes hadrus relative abundance</t>
+  </si>
+  <si>
+    <t>Decreased in ALL (enriched in HC)</t>
+  </si>
+  <si>
+    <t>Blautia wexlerae relative abundance</t>
+  </si>
+  <si>
+    <t>Decreased in ALL (enriched_</t>
   </si>
 </sst>
 </file>
@@ -4537,9 +4677,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4842,11 +4989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6378,6 +6525,95 @@
         <v>1302</v>
       </c>
     </row>
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="3">
+        <v>206</v>
+      </c>
+      <c r="S18" s="3">
+        <v>30</v>
+      </c>
+      <c r="T18" s="3">
+        <v>176</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC13">
     <sortCondition ref="A1:A13"/>
@@ -6389,10 +6625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S218"/>
+  <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6409,6 +6645,7 @@
     <col min="10" max="10" width="20.1796875" customWidth="1"/>
     <col min="11" max="12" width="36.26953125" customWidth="1"/>
     <col min="13" max="13" width="30.08984375" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" customWidth="1"/>
     <col min="16" max="16" width="18.6328125" customWidth="1"/>
     <col min="19" max="19" width="14.7265625" customWidth="1"/>
   </cols>
@@ -17884,6 +18121,377 @@
       </c>
       <c r="S218" t="s">
         <v>1484</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B219" t="s">
+        <v>136</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D219" t="s">
+        <v>168</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G219" t="s">
+        <v>925</v>
+      </c>
+      <c r="H219" t="s">
+        <v>41</v>
+      </c>
+      <c r="I219" t="s">
+        <v>41</v>
+      </c>
+      <c r="J219" t="s">
+        <v>961</v>
+      </c>
+      <c r="K219" t="s">
+        <v>41</v>
+      </c>
+      <c r="L219" t="s">
+        <v>41</v>
+      </c>
+      <c r="O219" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P219" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>103</v>
+      </c>
+      <c r="R219" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S219" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B220" t="s">
+        <v>136</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D220" t="s">
+        <v>168</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G220" t="s">
+        <v>925</v>
+      </c>
+      <c r="H220" t="s">
+        <v>41</v>
+      </c>
+      <c r="I220" t="s">
+        <v>41</v>
+      </c>
+      <c r="J220" t="s">
+        <v>961</v>
+      </c>
+      <c r="K220" t="s">
+        <v>41</v>
+      </c>
+      <c r="L220" t="s">
+        <v>41</v>
+      </c>
+      <c r="O220">
+        <v>1E-3</v>
+      </c>
+      <c r="P220" t="s">
+        <v>1510</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>103</v>
+      </c>
+      <c r="R220" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S220" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B221" t="s">
+        <v>136</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D221" t="s">
+        <v>168</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G221" t="s">
+        <v>925</v>
+      </c>
+      <c r="H221" t="s">
+        <v>41</v>
+      </c>
+      <c r="I221" t="s">
+        <v>41</v>
+      </c>
+      <c r="J221" t="s">
+        <v>961</v>
+      </c>
+      <c r="K221" t="s">
+        <v>41</v>
+      </c>
+      <c r="L221" t="s">
+        <v>41</v>
+      </c>
+      <c r="O221" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P221" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>103</v>
+      </c>
+      <c r="R221" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S221" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B222" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D222" t="s">
+        <v>168</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G222" t="s">
+        <v>925</v>
+      </c>
+      <c r="H222" t="s">
+        <v>41</v>
+      </c>
+      <c r="I222" t="s">
+        <v>41</v>
+      </c>
+      <c r="J222" t="s">
+        <v>961</v>
+      </c>
+      <c r="K222" t="s">
+        <v>41</v>
+      </c>
+      <c r="L222" t="s">
+        <v>41</v>
+      </c>
+      <c r="O222" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P222" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>103</v>
+      </c>
+      <c r="R222" t="s">
+        <v>459</v>
+      </c>
+      <c r="S222" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D223" t="s">
+        <v>168</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G223" t="s">
+        <v>925</v>
+      </c>
+      <c r="H223" t="s">
+        <v>41</v>
+      </c>
+      <c r="I223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J223" t="s">
+        <v>961</v>
+      </c>
+      <c r="K223" t="s">
+        <v>41</v>
+      </c>
+      <c r="L223" t="s">
+        <v>41</v>
+      </c>
+      <c r="O223" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P223" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>103</v>
+      </c>
+      <c r="R223" t="s">
+        <v>459</v>
+      </c>
+      <c r="S223" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D224" t="s">
+        <v>168</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G224" t="s">
+        <v>961</v>
+      </c>
+      <c r="H224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I224" t="s">
+        <v>41</v>
+      </c>
+      <c r="J224" t="s">
+        <v>925</v>
+      </c>
+      <c r="K224" t="s">
+        <v>41</v>
+      </c>
+      <c r="L224" t="s">
+        <v>41</v>
+      </c>
+      <c r="O224" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P224" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>103</v>
+      </c>
+      <c r="R224" t="s">
+        <v>459</v>
+      </c>
+      <c r="S224" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B225" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D225" t="s">
+        <v>168</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G225" t="s">
+        <v>961</v>
+      </c>
+      <c r="H225" t="s">
+        <v>41</v>
+      </c>
+      <c r="I225" t="s">
+        <v>41</v>
+      </c>
+      <c r="J225" t="s">
+        <v>925</v>
+      </c>
+      <c r="K225" t="s">
+        <v>41</v>
+      </c>
+      <c r="L225" t="s">
+        <v>41</v>
+      </c>
+      <c r="O225" t="s">
+        <v>1514</v>
+      </c>
+      <c r="P225" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>103</v>
+      </c>
+      <c r="R225" t="s">
+        <v>459</v>
+      </c>
+      <c r="S225" t="s">
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
